--- a/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
+++ b/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-code-healthcare-unit-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-code-healthcare-unit-valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15T15:21:17-03:00</t>
+    <t>2023-08-16T00:27:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,7 +152,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-code_healthunit-valueset/</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-code_healthunit-valueset/</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
+++ b/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T00:27:03-03:00</t>
+    <t>2023-08-25T01:55:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
+++ b/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T01:55:28-03:00</t>
+    <t>2023-08-29T02:44:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
+++ b/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Healthcare Unit Code ValueSet</t>
+    <t>ValueSet of Healthcare Unit Code</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T02:44:39-03:00</t>
+    <t>2023-08-31T16:41:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,15 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This ValueSet details codes for healthcare units serving stroke patients in Brazil. 
-It includes:
-- Public Primary Care: CNES (Cadastro Nacional de Estabelecimento Único)
-- Public Reference Hospital: CNES (Cadastro Nacional de Estabelecimento Único)
-- Public Non-Reference Hospital: CNES (Cadastro Nacional de Estabelecimento Único)
-- Public Emergency Unit: CNES (Cadastro Nacional de Estabelecimento Único)
-- Public Ambulance: CNES (Cadastro Nacional de Estabelecimento Único)
-- Public Rehabilitation Unit: CNES (Cadastro Nacional de Estabelecimento Único)
-- Private Healthcare Service: Other Code.</t>
+    <t>This ValueSet details codes for healthcare units serving stroke patients in Brazil.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
+++ b/ValueSet-molicavc-code-healthcare-unit-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,37 +96,37 @@
     <t>UBSF</t>
   </si>
   <si>
-    <t>Public Primary Care (CNES - Cadastro Nacional de Estabelecimento Único)</t>
+    <t>Public Primary Care (CNES)</t>
   </si>
   <si>
     <t>STROKEHOSP</t>
   </si>
   <si>
-    <t>Public Reference Hospital (CNES - Cadastro Nacional de Estabelecimento Único)</t>
+    <t>Public Reference Hospital (CNES)</t>
   </si>
   <si>
     <t>NONSTROKEHOSP</t>
   </si>
   <si>
-    <t>Public Non-Reference Hospital (CNES - Cadastro Nacional de Estabelecimento Único)</t>
+    <t>Public Non-Reference Hospital (CNES)</t>
   </si>
   <si>
     <t>UPA</t>
   </si>
   <si>
-    <t>Public Emergency Unit (CNES - Cadastro Nacional de Estabelecimento Único)</t>
+    <t>Public Emergency Unit (CNES)</t>
   </si>
   <si>
     <t>SAMU</t>
   </si>
   <si>
-    <t>Public Ambulance (CNES - Cadastro Nacional de Estabelecimento Único)</t>
+    <t>Public Ambulance (CNES)</t>
   </si>
   <si>
     <t>REAB</t>
   </si>
   <si>
-    <t>Public Rehabilitation Unit (CNES - Cadastro Nacional de Estabelecimento Único)</t>
+    <t>Public Rehabilitation Unit (CNES)</t>
   </si>
   <si>
     <t>OTHER</t>
